--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>43951</v>
+        <v>45369</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45369</v>
+        <v>45424</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45424</v>
+        <v>45434</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45434</v>
+        <v>45245</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45245</v>
+        <v>45313</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -241,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -279,7 +279,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45313</v>
+        <v>45726</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45726</v>
+        <v>45741</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45741</v>
+        <v>45768</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45768</v>
+        <v>45787</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45787</v>
+        <v>45585</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45585</v>
+        <v>45313</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45313</v>
+        <v>46023</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/butte_metadata.xlsx
+++ b/data-raw/metadata/butte_metadata.xlsx
@@ -1030,7 +1030,7 @@
         <v>35034</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>46023</v>
+        <v>46050</v>
       </c>
     </row>
   </sheetData>
